--- a/tabela_contatos.xlsx
+++ b/tabela_contatos.xlsx
@@ -77,12 +77,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="5.71094" customWidth="1"/>
-    <col min="2" max="2" width="1.71094" customWidth="1"/>
-    <col min="3" max="3" width="2.71094" customWidth="1"/>
+    <col min="1" max="1" width="20.7109" customWidth="1"/>
+    <col min="2" max="2" width="30.7109" customWidth="1"/>
+    <col min="3" max="3" width="15.7109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" s="1" r="1">
+    <row ht="25.5" customHeight="1" s="1" r="1">
       <c t="inlineStr" s="1" r="A1">
         <is xml:space="preserve">
           <t>Nome</t>
@@ -99,7 +99,7 @@
         </is>
       </c>
     </row>
-    <row ht="12.75" customHeight="1" r="2">
+    <row ht="25.5" customHeight="1" r="2">
       <c t="inlineStr" s="3" r="A2">
         <is xml:space="preserve">
           <t>Pedro</t>
@@ -107,12 +107,12 @@
       </c>
       <c t="inlineStr" s="3" r="B2">
         <is xml:space="preserve">
-          <t>contatopedromucelin@gmail.com</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c t="inlineStr" s="3" r="C2">
         <is xml:space="preserve">
-          <t>21994482722</t>
+          <t>Pedro</t>
         </is>
       </c>
     </row>
